--- a/SuppXLS/Scen_Electricity_profile_ENTSO.xlsx
+++ b/SuppXLS/Scen_Electricity_profile_ENTSO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Oss\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Gucwa\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F779A-2C72-4D2C-8566-0B3E5A859595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CA123A-5570-4B1B-98AB-B122AA79956B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:F23"/>
+  <dimension ref="C4:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="F19">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="F21">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="F22">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -742,7 +742,13 @@
         <v>14</v>
       </c>
       <c r="F23">
-        <v>0.25</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f>SUM(F16:F23)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
